--- a/beam_data_test.xlsx
+++ b/beam_data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\MultibodyNonlinearBeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E1F19-296A-49D3-9D57-5E4F5E95777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA30DDE-8D7C-455A-92EE-6769B6476A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9B579CF-1D70-40C4-8C25-997ED3B90A86}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Component</t>
   </si>
@@ -276,6 +276,12 @@
     </r>
   </si>
   <si>
+    <t>ν [-]</t>
+  </si>
+  <si>
+    <t>NACA_0012.txt</t>
+  </si>
+  <si>
     <r>
       <t>x</t>
     </r>
@@ -298,7 +304,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [-]</t>
+      <t xml:space="preserve"> [% of c]</t>
     </r>
   </si>
   <si>
@@ -324,7 +330,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [-]</t>
+      <t xml:space="preserve"> [% of c]</t>
     </r>
   </si>
   <si>
@@ -350,14 +356,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [-]</t>
-    </r>
-  </si>
-  <si>
-    <t>ν [-]</t>
-  </si>
-  <si>
-    <t>NACA_0012.txt</t>
+      <t xml:space="preserve"> [% of c]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t [% of c]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use only for 'Rectangular' cross-section</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +438,13 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -804,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84042242-3202-45EF-A4FF-A80CAF1786C0}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,37 +885,35 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>0.75</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -901,10 +921,10 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -912,10 +932,11 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <f>-0.3/B6</f>
+        <v>-1.8749999999999999E-2</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -923,10 +944,10 @@
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -934,27 +955,19 @@
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <f>-2/B6</f>
+        <v>-0.125</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -962,13 +975,22 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -976,7 +998,7 @@
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -987,7 +1009,7 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -998,7 +1020,7 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -1009,62 +1031,65 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9">
-        <v>294190000</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9">
+        <v>109980</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
         <v>0.33</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10">
-        <f>B18/(2*(1+B19))</f>
-        <v>110597744.36090225</v>
-      </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <f>B19/(2*(1+B20))</f>
+        <v>41345.86466165413</v>
+      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
@@ -1078,19 +1103,19 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -1117,19 +1142,19 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1155,7 +1180,15 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="35" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:H1"/>

--- a/beam_data_test.xlsx
+++ b/beam_data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\MultibodyNonlinearBeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA30DDE-8D7C-455A-92EE-6769B6476A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110247BF-FC66-4849-BBEA-F15024616E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9B579CF-1D70-40C4-8C25-997ED3B90A86}"/>
   </bookViews>

--- a/beam_data_test.xlsx
+++ b/beam_data_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\MultibodyNonlinearBeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110247BF-FC66-4849-BBEA-F15024616E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C42EFD-D6F2-4458-B082-C245A840B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9B579CF-1D70-40C4-8C25-997ED3B90A86}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Component</t>
   </si>
@@ -279,9 +279,6 @@
     <t>ν [-]</t>
   </si>
   <si>
-    <t>NACA_0012.txt</t>
-  </si>
-  <si>
     <r>
       <t>x</t>
     </r>
@@ -373,6 +370,61 @@
       </rPr>
       <t xml:space="preserve"> use only for 'Rectangular' cross-section</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ea,y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [% of c/2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ea,z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [% of c/2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Rectangular</t>
   </si>
 </sst>
 </file>
@@ -471,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,8 +555,29 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -826,54 +899,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84042242-3202-45EF-A4FF-A80CAF1786C0}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20.7109375" style="2"/>
+    <col min="1" max="1" width="18" style="18" customWidth="1"/>
+    <col min="2" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="I2" s="7"/>
@@ -881,35 +955,37 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
@@ -920,7 +996,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
@@ -931,43 +1007,41 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <f>-0.3/B6</f>
-        <v>-1.8749999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3">
-        <f>-2/B6</f>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
+      <c r="A11" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -986,19 +1060,19 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
+      <c r="A12" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
+      <c r="A13" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1008,30 +1082,30 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
+      <c r="A14" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
+      <c r="A15" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
+      <c r="A16" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1041,84 +1115,90 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3"/>
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="A18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="9">
-        <v>109980</v>
-      </c>
-      <c r="C19" s="9"/>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9">
+        <v>240000</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B22" s="4">
         <v>0.33</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10">
-        <f>B19/(2*(1+B20))</f>
-        <v>41345.86466165413</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1126,15 +1206,14 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1142,7 +1221,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1150,14 +1229,15 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1165,15 +1245,14 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1181,14 +1260,30 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
